--- a/02_MasterWifoMannheim/99_Backup/Course87.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course87.xlsx
@@ -1,136 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_2B59D2BFD32051265F592811596AB036471FF909" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FD99CF5-4DCC-4E4C-BB62-AF1E2B901F61}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>IS 510 Process Management PLEASE NOTE: No offering in spring 2021; the topics of this lecture are integrated in IS 514.</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>This lecture offers highly relevant concepts for modeling, analyzing, implementing, and controlling business processes with information and communication technology. Participants will be offered business knowledge as well as the methodological foundations from an information systems perspective to successfully design and manage business process.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>After completing the class students should be able to recognize the significance of process management, designg and improve business processes by using particular techniques and tools, analyze the structure and behavior of dynamic objects in processes, understand how business processes can be supported with information technology, and control business processes from time, capacity, and cost perspectives-</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration: yes, limited to 80 participants</t>
-  </si>
-  <si>
-    <t>Further Information on registration: Portal” (more information about the registration process is available here)</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 8 Exercise class 1 1</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>80% written exam (60 min.) 20% group assignment (mandatory)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Dr. Okan Aydingül</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Spring semester No offering in fall 2020</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ.</t>
-  </si>
-  <si>
-    <t>Information Systems (IS)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -145,46 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -472,146 +420,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="188.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IS 510 Process Management </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>This lecture offers highly relevant concepts for modeling, analyzing, implementing, and controlling business processes with information and communication technology. Participants will be offered business knowledge as well as the methodological foundations from an information systems perspective to successfully design and manage business process.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>After completing the class students should be able to recognize the significance of process management, designg and improve business processes by using particular techniques and tools, analyze the structure and behavior of dynamic objects in processes, understand how business processes can be supported with information technology, and control business processes from time, capacity, and cost perspectives-</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Information Systems (IS)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registration: yes, limited to 80 participants</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further Information on registration: Portal” (more information about the registration process is available here)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 8 Exercise class 1 1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>80% written exam (60 min.) 20% group assignment (mandatory)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dr. Okan Aydingül</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
